--- a/homeworks/homework_10/yevhenii_vinichenko/4-8_benchmarks-results-S8.xlsx
+++ b/homeworks/homework_10/yevhenii_vinichenko/4-8_benchmarks-results-S8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr date1904="1" updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TIMSS2019\Reports\International Reports\REPORTS WEB\download\achievement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevhe\Documents\TWD\2021Z-DataVisualizationTechniques\homeworks\homework_10\yevhenii_vinichenko\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5186B765-1658-4543-B7ED-1503C1C558E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7935"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G8 SCI" sheetId="13" r:id="rId1"/>
@@ -129,9 +130,6 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Norway (9)</t>
-  </si>
-  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
@@ -163,9 +161,6 @@
   </si>
   <si>
     <t>Chile</t>
-  </si>
-  <si>
-    <t>South Africa (9)</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
@@ -224,12 +219,18 @@
   <si>
     <t>Low Benchmark
 (400)</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\(0.0\)"/>
@@ -883,64 +884,64 @@
     <xf numFmtId="0" fontId="32" fillId="7" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="Arrows_Comparison" xfId="1"/>
-    <cellStyle name="BenchMark_Header" xfId="2"/>
-    <cellStyle name="Countries" xfId="3"/>
-    <cellStyle name="Countries_List" xfId="4"/>
-    <cellStyle name="DataSheet" xfId="5"/>
-    <cellStyle name="DataSheet 2" xfId="20"/>
-    <cellStyle name="DataSheet 2 2" xfId="25"/>
-    <cellStyle name="DataSheet 3" xfId="22"/>
-    <cellStyle name="Description_Header" xfId="6"/>
-    <cellStyle name="Exhibit_Title" xfId="7"/>
-    <cellStyle name="Footnote_Bottom_Marker" xfId="8"/>
-    <cellStyle name="Footnote_Top_Marker" xfId="9"/>
-    <cellStyle name="Footnotes" xfId="10"/>
-    <cellStyle name="Footnotes 2" xfId="21"/>
-    <cellStyle name="Footnotes 2 2" xfId="26"/>
-    <cellStyle name="Footnotes 3" xfId="23"/>
-    <cellStyle name="Head_6.5_Cent_topborder" xfId="11"/>
-    <cellStyle name="Head_8_Cent" xfId="12"/>
+    <cellStyle name="Arrows_Comparison" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="BenchMark_Header" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Countries" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Countries_List" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="DataSheet" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="DataSheet 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="DataSheet 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="DataSheet 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Description_Header" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Exhibit_Title" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Footnote_Bottom_Marker" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Footnote_Top_Marker" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnotes" xfId="10" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Footnotes 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Footnotes 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Footnotes 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Head_6.5_Cent_topborder" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Head_8_Cent" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8"/>
-    <cellStyle name="Index_Header" xfId="13"/>
+    <cellStyle name="Index_Header" xfId="13" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14"/>
-    <cellStyle name="Normal 2 2" xfId="24"/>
-    <cellStyle name="Numbers_Center" xfId="15"/>
-    <cellStyle name="Numbers_Right" xfId="16"/>
-    <cellStyle name="Numbers_S_Error" xfId="17"/>
-    <cellStyle name="RandS_Column" xfId="18"/>
-    <cellStyle name="Significance_Arrows" xfId="19"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Numbers_Center" xfId="15" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Numbers_Right" xfId="16" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Numbers_S_Error" xfId="17" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="RandS_Column" xfId="18" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Significance_Arrows" xfId="19" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
   <dxfs count="43">
     <dxf>
@@ -1483,7 +1484,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1550,20 +1557,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="Group 14"/>
+        <xdr:cNvPr id="15" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="22411" y="22412"/>
-          <a:ext cx="12440158" cy="960166"/>
+          <a:ext cx="13052746" cy="945225"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="12494851" cy="960166"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="Picture 15"/>
+          <xdr:cNvPr id="16" name="Picture 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1592,7 +1611,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="Picture 16"/>
+          <xdr:cNvPr id="17" name="Picture 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1969,57 +1994,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="49.5703125" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.81640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="0.453125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.453125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.453125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="12.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="49.54296875" customWidth="1"/>
+    <col min="17" max="17" width="6.26953125" customWidth="1"/>
+    <col min="18" max="19" width="9.26953125" customWidth="1"/>
+    <col min="20" max="20" width="0.453125" customWidth="1"/>
     <col min="21" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" customWidth="1"/>
-    <col min="25" max="16384" width="14.28515625" style="1"/>
+    <col min="23" max="23" width="3.1796875" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" customWidth="1"/>
+    <col min="25" max="16384" width="14.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customFormat="1" ht="22.5" customHeight="1"/>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -2030,12 +2055,12 @@
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="26"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -2066,50 +2091,50 @@
       <c r="X4"/>
     </row>
     <row r="5" spans="1:24" ht="27.75" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="74" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="40"/>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+    </row>
+    <row r="6" spans="1:24" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="75"/>
+      <c r="E6" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="77" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-    </row>
-    <row r="6" spans="1:24" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="E6" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="77" t="s">
-        <v>62</v>
       </c>
       <c r="I6" s="77"/>
       <c r="K6" s="77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L6" s="77"/>
-      <c r="M6" s="72"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O6" s="77"/>
     </row>
-    <row r="7" spans="1:24" ht="17.45" customHeight="1">
+    <row r="7" spans="1:24" ht="17.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="60" t="s">
         <v>6</v>
@@ -2145,7 +2170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17.45" customHeight="1">
+    <row r="8" spans="1:24" ht="17.5" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="61" t="s">
         <v>7</v>
@@ -2181,7 +2206,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17.45" customHeight="1">
+    <row r="9" spans="1:24" ht="17.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="60" t="s">
         <v>7</v>
@@ -2217,7 +2242,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17.45" customHeight="1">
+    <row r="10" spans="1:24" ht="17.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="61" t="s">
         <v>7</v>
@@ -2253,7 +2278,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17.45" customHeight="1">
+    <row r="11" spans="1:24" ht="17.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="60" t="s">
         <v>7</v>
@@ -2289,7 +2314,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.45" customHeight="1">
+    <row r="12" spans="1:24" ht="17.5" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="61" t="s">
         <v>8</v>
@@ -2325,7 +2350,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.45" customHeight="1">
+    <row r="13" spans="1:24" ht="17.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="60" t="s">
         <v>6</v>
@@ -2361,7 +2386,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17.45" customHeight="1">
+    <row r="14" spans="1:24" ht="17.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="61" t="s">
         <v>6</v>
@@ -2397,7 +2422,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.45" customHeight="1">
+    <row r="15" spans="1:24" ht="17.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="60" t="s">
         <v>7</v>
@@ -2433,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.45" customHeight="1">
+    <row r="16" spans="1:24" ht="17.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="61" t="s">
         <v>7</v>
@@ -2469,7 +2494,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17.45" customHeight="1">
+    <row r="17" spans="1:15" ht="17.5" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="60" t="s">
         <v>9</v>
@@ -2505,7 +2530,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17.45" customHeight="1">
+    <row r="18" spans="1:15" ht="17.5" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="61" t="s">
         <v>7</v>
@@ -2541,7 +2566,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="17.45" customHeight="1">
+    <row r="19" spans="1:15" ht="17.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="60" t="s">
         <v>7</v>
@@ -2577,7 +2602,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="17.45" customHeight="1">
+    <row r="20" spans="1:15" ht="17.5" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="61" t="s">
         <v>7</v>
@@ -2613,7 +2638,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17.45" customHeight="1">
+    <row r="21" spans="1:15" ht="17.5" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="60" t="s">
         <v>7</v>
@@ -2649,7 +2674,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.45" customHeight="1">
+    <row r="22" spans="1:15" ht="17.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="61" t="s">
         <v>7</v>
@@ -2685,7 +2710,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.45" customHeight="1">
+    <row r="23" spans="1:15" ht="17.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="60" t="s">
         <v>8</v>
@@ -2721,7 +2746,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17.45" customHeight="1">
+    <row r="24" spans="1:15" ht="17.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="61" t="s">
         <v>7</v>
@@ -2757,7 +2782,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="17.45" customHeight="1">
+    <row r="25" spans="1:15" ht="17.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="60" t="s">
         <v>8</v>
@@ -2793,7 +2818,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="17.45" customHeight="1">
+    <row r="26" spans="1:15" ht="17.5" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="61" t="s">
         <v>7</v>
@@ -2829,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17.45" customHeight="1">
+    <row r="27" spans="1:15" ht="17.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="60" t="s">
         <v>7</v>
@@ -2865,13 +2890,13 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17.45" customHeight="1">
+    <row r="28" spans="1:15" ht="17.5" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7">
@@ -2901,13 +2926,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17.45" customHeight="1">
+    <row r="29" spans="1:15" ht="17.5" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4">
@@ -2937,13 +2962,13 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="17.45" customHeight="1">
+    <row r="30" spans="1:15" ht="17.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7">
@@ -2973,13 +2998,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="17.45" customHeight="1">
+    <row r="31" spans="1:15" ht="17.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4">
@@ -3009,13 +3034,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="17.45" customHeight="1">
+    <row r="32" spans="1:15" ht="17.5" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7">
@@ -3045,13 +3070,13 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="17.45" customHeight="1">
+    <row r="33" spans="1:24" ht="17.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4">
@@ -3081,13 +3106,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="17.45" customHeight="1">
+    <row r="34" spans="1:24" ht="17.5" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7">
@@ -3117,13 +3142,13 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="17.45" customHeight="1">
+    <row r="35" spans="1:24" ht="17.5" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4">
@@ -3153,13 +3178,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="17.45" customHeight="1">
+    <row r="36" spans="1:24" ht="17.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7">
@@ -3189,13 +3214,13 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="17.45" customHeight="1">
+    <row r="37" spans="1:24" ht="17.5" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4">
@@ -3225,13 +3250,13 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="17.45" customHeight="1">
+    <row r="38" spans="1:24" ht="17.5" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7">
@@ -3261,13 +3286,13 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="17.45" customHeight="1">
+    <row r="39" spans="1:24" ht="17.5" customHeight="1">
       <c r="A39" s="53"/>
       <c r="B39" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="54">
@@ -3306,13 +3331,13 @@
       <c r="W39" s="48"/>
       <c r="X39" s="48"/>
     </row>
-    <row r="40" spans="1:24" ht="17.45" customHeight="1">
+    <row r="40" spans="1:24" ht="17.5" customHeight="1">
       <c r="A40" s="23"/>
       <c r="B40" s="63" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7">
@@ -3342,13 +3367,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="17.45" customHeight="1">
+    <row r="41" spans="1:24" ht="17.5" customHeight="1">
       <c r="A41" s="53"/>
       <c r="B41" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="54">
@@ -3387,13 +3412,13 @@
       <c r="W41" s="48"/>
       <c r="X41" s="48"/>
     </row>
-    <row r="42" spans="1:24" ht="17.45" customHeight="1">
+    <row r="42" spans="1:24" ht="17.5" customHeight="1">
       <c r="A42" s="23"/>
       <c r="B42" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7">
@@ -3423,13 +3448,13 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="17.45" customHeight="1">
+    <row r="43" spans="1:24" ht="17.5" customHeight="1">
       <c r="A43" s="53"/>
       <c r="B43" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="54">
@@ -3468,13 +3493,13 @@
       <c r="W43" s="48"/>
       <c r="X43" s="48"/>
     </row>
-    <row r="44" spans="1:24" ht="17.45" customHeight="1">
+    <row r="44" spans="1:24" ht="17.5" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="63" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7">
@@ -3504,13 +3529,13 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="17.45" customHeight="1">
+    <row r="45" spans="1:24" ht="17.5" customHeight="1">
       <c r="A45" s="53"/>
       <c r="B45" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="54">
@@ -3549,13 +3574,13 @@
       <c r="W45" s="48"/>
       <c r="X45" s="48"/>
     </row>
-    <row r="46" spans="1:24" ht="17.45" customHeight="1" thickBot="1">
+    <row r="46" spans="1:24" ht="17.5" customHeight="1" thickBot="1">
       <c r="A46" s="51"/>
       <c r="B46" s="69" t="e">
         <v>#N/A</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="49">
@@ -3578,7 +3603,7 @@
       </c>
       <c r="O46" s="50"/>
     </row>
-    <row r="47" spans="1:24" ht="23.1" customHeight="1" thickBot="1">
+    <row r="47" spans="1:24" ht="23.15" customHeight="1" thickBot="1">
       <c r="A47" s="27" t="s">
         <v>0</v>
       </c>
@@ -3594,7 +3619,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="41">
@@ -3633,13 +3658,13 @@
       <c r="W48" s="48"/>
       <c r="X48" s="48"/>
     </row>
-    <row r="49" spans="1:24" ht="17.45" customHeight="1">
+    <row r="49" spans="1:24" ht="17.5" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="18">
@@ -3669,13 +3694,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="17.45" customHeight="1">
+    <row r="50" spans="1:24" ht="17.5" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="65" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="56">
@@ -3714,13 +3739,13 @@
       <c r="W50" s="48"/>
       <c r="X50" s="48"/>
     </row>
-    <row r="51" spans="1:24" ht="17.45" customHeight="1">
+    <row r="51" spans="1:24" ht="17.5" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="18">
@@ -3750,13 +3775,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="17.45" customHeight="1">
+    <row r="52" spans="1:24" ht="17.5" customHeight="1">
       <c r="A52" s="38"/>
       <c r="B52" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="54">
@@ -3795,13 +3820,13 @@
       <c r="W52" s="48"/>
       <c r="X52" s="48"/>
     </row>
-    <row r="53" spans="1:24" ht="17.45" customHeight="1">
+    <row r="53" spans="1:24" ht="17.5" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="18">
@@ -3831,13 +3856,13 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="17.45" customHeight="1" thickBot="1">
+    <row r="54" spans="1:24" ht="17.5" customHeight="1" thickBot="1">
       <c r="A54" s="44"/>
       <c r="B54" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="46">
@@ -3921,23 +3946,23 @@
       <c r="X57"/>
     </row>
     <row r="58" spans="1:24" s="13" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
@@ -3948,21 +3973,21 @@
       <c r="X58"/>
     </row>
     <row r="59" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
       <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
@@ -3973,21 +3998,21 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
@@ -3998,21 +4023,21 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="79"/>
       <c r="Q61"/>
       <c r="R61"/>
       <c r="S61"/>
@@ -4023,21 +4048,21 @@
       <c r="X61"/>
     </row>
     <row r="62" spans="1:24" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="70"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="79"/>
       <c r="Q62"/>
       <c r="R62"/>
       <c r="S62"/>
@@ -4088,7 +4113,7 @@
       <c r="W64"/>
       <c r="X64"/>
     </row>
-    <row r="65" spans="3:3" ht="14.25">
+    <row r="65" spans="3:3" ht="14">
       <c r="C65" s="20"/>
     </row>
     <row r="66" spans="3:3">
@@ -4120,6 +4145,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B58:P62"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:O5"/>
@@ -4127,8 +4154,6 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B58:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C10">
     <cfRule type="cellIs" dxfId="42" priority="91" stopIfTrue="1" operator="equal">
@@ -4346,7 +4371,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B64" r:id="rId1" display="http://timss2019.org/download"/>
+    <hyperlink ref="B64" r:id="rId1" display="http://timss2019.org/download" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.15" top="0.15" bottom="0.15" header="0.15" footer="0"/>
